--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1902675.573410925</v>
+        <v>1904999.245224793</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +676,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>13.00576294050473</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>53.51252900994975</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>13.00576294050473</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.13383555196372</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="F3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,70 +898,70 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9.737236172019017</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="U6" t="n">
-        <v>177.6319837740466</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,20 +1135,20 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F8" t="n">
-        <v>69.1170502640262</v>
-      </c>
-      <c r="G8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>33.60023339142363</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>111.1751113141405</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,61 +1384,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>144.5674975588848</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>56.26539607665198</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>87.20907807295006</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1862,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>90.38893773807641</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,68 +2080,68 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>24.74894597221386</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2281,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,11 +2323,11 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -2451,16 +2453,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>52.82404150410036</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,64 +2797,64 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>67.35888363780772</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>10.15822114686783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,14 +3028,14 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>102.3193935893247</v>
+        <v>124.9970695510301</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,58 +3280,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>18.61863974315339</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>3.55522121023865</v>
       </c>
     </row>
     <row r="37">
@@ -3424,61 +3426,61 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.16066412513263</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,14 +3742,14 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -3782,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.27563719245528</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.91642501047011</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>98.99849607857584</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>83.5411854572273</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
         <v>70.40405117388919</v>
@@ -4331,16 +4333,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4361,19 +4363,19 @@
         <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4413,19 +4415,19 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
         <v>80.82849811456629</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="C5" t="n">
-        <v>485.167420504237</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="D5" t="n">
-        <v>485.167420504237</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="E5" t="n">
-        <v>485.167420504237</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>307.8574406365461</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>133.4044113554191</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U6" t="n">
-        <v>307.8574406365461</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V6" t="n">
-        <v>307.8574406365461</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W6" t="n">
-        <v>307.8574406365461</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>307.8574406365461</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>307.8574406365461</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4747,28 +4749,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625565</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625565</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>104.5536560184564</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="9">
@@ -4890,40 +4892,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5072,19 +5074,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>341.255911560952</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>341.255911560952</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="13">
@@ -5188,13 +5190,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>668.2068788942177</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C15" t="n">
-        <v>668.2068788942177</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>875.9671776591715</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>875.9671776591715</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>875.9671776591715</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>875.9671776591715</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W15" t="n">
-        <v>875.9671776591715</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X15" t="n">
-        <v>875.9671776591715</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y15" t="n">
-        <v>668.2068788942177</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>122.6530896684844</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V17" t="n">
-        <v>122.6530896684844</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W17" t="n">
-        <v>122.6530896684844</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.6530896684844</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5689,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>348.0024326625565</v>
+      </c>
+      <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5750,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5929,22 +5931,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="25">
@@ -6175,13 +6177,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>73.39289344390789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>73.39289344390789</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>627.7355178317791</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>627.7355178317791</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>419.8840176262463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.1237188612924</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>342.668582052591</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>621.4310051123648</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="X30" t="n">
-        <v>718.6442178376129</v>
+        <v>386.2788968806221</v>
       </c>
       <c r="Y30" t="n">
-        <v>510.883919072659</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X32" t="n">
-        <v>962.2293816994886</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y32" t="n">
-        <v>718.7806050553886</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>342.668582052591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6791,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X33" t="n">
-        <v>446.0215048700907</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y33" t="n">
-        <v>446.0215048700907</v>
+        <v>145.5408093233744</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6877,31 +6879,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>844.0809192522559</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>641.8943246110218</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>413.6707063474109</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V36" t="n">
-        <v>178.5185981156682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="W36" t="n">
-        <v>178.5185981156682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>197.3253049269343</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7126,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>872.9857776064619</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>872.9857776064619</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>670.7991829652278</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U39" t="n">
-        <v>670.7991829652278</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V39" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W39" t="n">
-        <v>435.6470747334852</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>227.7955745279523</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>274.0360370837871</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>274.0360370837871</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>274.0360370837871</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X41" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>414.6641751762832</v>
+        <v>157.6713068207694</v>
       </c>
       <c r="C42" t="n">
-        <v>240.2111458951562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>91.27673623390493</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7491,16 +7493,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M42" t="n">
         <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X42" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y42" t="n">
-        <v>582.8795121963512</v>
+        <v>325.8866438408374</v>
       </c>
     </row>
     <row r="43">
@@ -7594,19 +7596,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7679,19 +7681,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>562.4161926976942</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>562.4161926976942</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>318.9674160535941</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X45" t="n">
-        <v>111.1159158480613</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="46">
@@ -7831,19 +7833,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7979,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8061,7 +8063,7 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>193.9466510701538</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8538,7 +8540,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8769,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,7 +9251,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,10 +10196,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>243.2069195535496</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10208,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10437,10 +10439,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10679,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>185.8815939223662</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>88.23308959054049</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>150.6253511395826</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>110.2677875732154</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>84.47409303088776</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23631,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23738,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23750,10 +23752,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>120.0869518323295</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>335.9273853140192</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>280.8531039918463</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>41.31998168728992</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>226.9460371887057</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24169,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,10 +24211,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.62640352501036</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,16 +24341,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>36.57259134731472</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>126.7882030360626</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24734,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>158.5824984431671</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24824,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>195.6147640566097</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.40903831289552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24880,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24935,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>64.21379006054259</v>
+        <v>41.53611409883725</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>363.4633956979714</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,13 +25168,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25281,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>153.0645313606844</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>202.1274745670657</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.997170027510506</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>180.9337498050905</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>35.70223691486467</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>86.36944326294567</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25919,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>127.0728313279712</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>114.7662707668343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340688.9236343034</v>
+        <v>340688.9236343033</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340688.9236343035</v>
+        <v>340688.9236343034</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340688.9236343034</v>
+        <v>340688.9236343035</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>340688.9236343034</v>
+        <v>340688.9236343035</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>340688.9236343034</v>
+        <v>340688.9236343035</v>
       </c>
     </row>
     <row r="14">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982127</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26338,7 +26340,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="K2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="L2" t="n">
         <v>249241.0087969986</v>
@@ -26347,10 +26349,10 @@
         <v>249241.0087969986</v>
       </c>
       <c r="N2" t="n">
+        <v>249241.0087969985</v>
+      </c>
+      <c r="O2" t="n">
         <v>249241.0087969986</v>
-      </c>
-      <c r="O2" t="n">
-        <v>249241.0087969985</v>
       </c>
       <c r="P2" t="n">
         <v>249241.0087969986</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335761.7110049646</v>
+        <v>335761.7110049645</v>
       </c>
       <c r="C4" t="n">
         <v>287492.6387038018</v>
@@ -26439,7 +26441,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26451,7 +26453,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225205.1753700415</v>
+        <v>225205.1753700419</v>
       </c>
       <c r="C6" t="n">
-        <v>219431.0977439809</v>
+        <v>219431.0977439807</v>
       </c>
       <c r="D6" t="n">
         <v>280007.419930649</v>
@@ -26555,10 +26557,10 @@
         <v>226040.2289638945</v>
       </c>
       <c r="N6" t="n">
+        <v>226040.2289638944</v>
+      </c>
+      <c r="O6" t="n">
         <v>226040.2289638945</v>
-      </c>
-      <c r="O6" t="n">
-        <v>226040.2289638944</v>
       </c>
       <c r="P6" t="n">
         <v>226040.2289638945</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4690391752624</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>156.9633605604562</v>
@@ -27433,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>314.7464955296302</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3993480979036</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.257836229695</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>91.55668338343412</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>173.4009736375838</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>397.1388095696924</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,19 +27669,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>179.6244982918734</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>154.8758545618492</v>
       </c>
       <c r="U6" t="n">
-        <v>48.30939830692824</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>66.3759156176843</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>337.7589954776852</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>189.4956161727077</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27977,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27989,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>121.6254758352848</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>31.76164565717804</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34781,7 +34783,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35489,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,10 +36916,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>104.6525397736754</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36928,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>43.28534947792182</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1904999.245224793</v>
+        <v>1836147.948783355</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>13.00576294050473</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.89241773958567</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>22.90612036710875</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -992,10 +992,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>5.216928617608685</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>45.28887413297245</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>33.60023339142363</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>216.6999729388017</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>117.5784330035868</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>144.5674975588848</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T14" t="n">
-        <v>72.47049842454879</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>56.26539607665198</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>121.6891056856135</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,55 +1764,55 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>33.80371536444981</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>126.0947718286371</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>230.5219311756913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>24.74894597221386</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>83.31062861576181</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,73 +2554,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>124.906780124857</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,31 +2791,31 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.32306705084065</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>67.35888363780772</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2991,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,67 +3028,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>124.9970695510301</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,14 +3277,14 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.55522121023865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3547,23 +3547,23 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>19.23097888973112</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>137.0062620734511</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>18.07547112307531</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,64 +3988,64 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>10.27068583523948</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
         <v>92.8068625444412</v>
@@ -4336,7 +4336,7 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
@@ -4345,37 +4345,37 @@
         <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.8068625444412</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>159.9970564337892</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57.25840604064623</v>
+      </c>
+      <c r="O3" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="M3" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>108.0953086000985</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4436,25 +4436,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U4" t="n">
-        <v>134.8815577205762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.1327311248648</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C5" t="n">
-        <v>285.1327311248648</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D5" t="n">
-        <v>285.1327311248648</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E5" t="n">
-        <v>285.1327311248648</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F5" t="n">
-        <v>278.1872303756613</v>
+        <v>267.0905363345836</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y5" t="n">
-        <v>285.1327311248648</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>164.0357260466543</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>25.30490062926984</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>817.1412885554689</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>817.1412885554689</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>817.1412885554689</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.7454097505996</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C8" t="n">
-        <v>281.7454097505996</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>768.6429630387997</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>768.6429630387997</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>768.6429630387997</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>768.6429630387997</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>525.1941863946997</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.7454097505996</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V11" t="n">
-        <v>477.1596022224361</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y11" t="n">
-        <v>477.1596022224361</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5153,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>341.255911560952</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>341.255911560952</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y12" t="n">
-        <v>133.4044113554191</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5229,22 +5229,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T14" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>327.4530077769195</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C15" t="n">
-        <v>327.4530077769195</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D15" t="n">
-        <v>178.5185981156682</v>
+        <v>447.97144466011</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>288.7339896546545</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>142.1994316815395</v>
       </c>
       <c r="G15" t="n">
         <v>19.28114311021272</v>
@@ -5360,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>627.7355178317791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>384.2867411876791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X15" t="n">
-        <v>384.2867411876791</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y15" t="n">
-        <v>384.2867411876791</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="16">
@@ -5460,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>475.3318284112885</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>475.3318284112885</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>406.5532930683112</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
         <v>19.28114311021272</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>252.1315786412141</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="19">
@@ -5691,10 +5691,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5752,7 +5752,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K20" t="n">
         <v>122.2961490211351</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>348.0024326625565</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>348.0024326625565</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5834,46 +5834,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>252.1315786412141</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
         <v>19.28114311021272</v>
@@ -5931,7 +5931,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X24" t="n">
-        <v>145.4496078827955</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.4496078827955</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
@@ -6211,7 +6211,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V27" t="n">
-        <v>353.3011080883284</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>273.858482543704</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.40545326257703</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6575,19 +6575,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>621.4310051123648</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>386.2788968806221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>386.2788968806221</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>386.2788968806221</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>273.858482543704</v>
       </c>
     </row>
     <row r="31">
@@ -6639,13 +6639,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>343.8760884571613</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>587.3248651012614</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>587.3248651012614</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>343.8760884571613</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6794,37 +6794,37 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>879.1508727409195</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>353.3011080883284</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.5408093233744</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>315.6850394389064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>432.4774131586771</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>197.3253049269343</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W36" t="n">
-        <v>197.3253049269343</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X36" t="n">
-        <v>197.3253049269343</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="37">
@@ -7128,7 +7128,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="W38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="X38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="Y38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>90.84473158927784</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7283,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>670.0450503124422</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>670.0450503124422</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>434.8929420806995</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7766548071333</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.6713068207694</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="M42" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N42" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W42" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X42" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.8866438408374</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="43">
@@ -7596,22 +7596,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U44" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="V44" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="W44" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V44" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W44" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7733,7 +7733,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
         <v>486.8488635328713</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W45" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X45" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.40970589960398</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7842,10 +7842,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
         <v>19.28114311021272</v>
@@ -7984,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>189.9047864055835</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8072,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>193.9466510701538</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8537,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9494,13 +9494,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>242.4075215744184</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11381,10 +11381,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23305,7 +23305,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>132.7629680684941</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>88.23308959054049</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T14" t="n">
-        <v>150.6253511395826</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.2677875732154</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>15.65441147759714</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23633,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>335.9273853140192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23816,19 +23816,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>31.55030862676385</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>21.17305198522826</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23931,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>46.82786452690794</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>280.8531039918463</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>226.9460371887057</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>181.0138317948241</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>240.1525967516569</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>41.62640352501036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>142.630753465213</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,16 +24499,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.01032478445052</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>126.7882030360626</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,13 +24697,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,7 +24736,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>49.05096647893927</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>169.3950043896394</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>10.07356580057443</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24815,16 +24815,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>158.5824984431671</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24879,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9381847551875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24964,19 +24964,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.53611409883725</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>16.10061421062353</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>362.8771690273874</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,7 +25247,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>32.605133915851</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>202.1274745670657</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25368,10 +25368,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,7 +25399,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>76.59711297036429</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>180.9337498050905</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,25 +25675,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>35.70223691486467</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>126.9937412703086</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25915,25 +25915,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>345.9756526602164</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0728313279712</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26082,13 +26082,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340688.9236343033</v>
+        <v>340688.9236343034</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340688.9236343034</v>
+        <v>340688.9236343035</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340688.9236343034</v>
+        <v>340688.9236343035</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>340688.9236343035</v>
+        <v>340688.9236343033</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340688.9236343035</v>
+        <v>340688.9236343034</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26349,13 +26349,13 @@
         <v>249241.0087969986</v>
       </c>
       <c r="N2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="O2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225205.1753700419</v>
+        <v>225205.1753700415</v>
       </c>
       <c r="C6" t="n">
-        <v>219431.0977439807</v>
+        <v>219431.0977439809</v>
       </c>
       <c r="D6" t="n">
         <v>280007.419930649</v>
       </c>
       <c r="E6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
       <c r="F6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
       <c r="G6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
       <c r="H6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.2183438541</v>
       </c>
       <c r="I6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
       <c r="J6" t="n">
-        <v>212038.9968236152</v>
+        <v>199820.9862035747</v>
       </c>
       <c r="K6" t="n">
-        <v>177783.2760302619</v>
+        <v>165565.2654102214</v>
       </c>
       <c r="L6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.2183438541</v>
       </c>
       <c r="M6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
       <c r="N6" t="n">
-        <v>226040.2289638944</v>
+        <v>213822.218343854</v>
       </c>
       <c r="O6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
       <c r="P6" t="n">
-        <v>226040.2289638945</v>
+        <v>213822.218343854</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.667977894723</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
@@ -27435,10 +27435,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>314.7464955296302</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>111.257836229695</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>158.5488602253406</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,16 +27554,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>136.065262941971</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>173.4009736375838</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,16 +27630,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,28 +27660,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>179.6244982918734</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>107.0185156188878</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>154.8758545618492</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>189.4956161727077</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>288.9009862035136</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>16.10061421062358</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>88.10426277371761</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34704,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="M2" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M2" t="n">
-        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>51.35040662570935</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,10 +35020,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
       <c r="P15" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38101,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
